--- a/Test Curves/Inverted_surf.xlsx
+++ b/Test Curves/Inverted_surf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajac\OneDrive\Documents\GitHub\ENME802_2021S1_Project2\Test Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257BF28C-D132-45A2-B4E7-D02F6BA2C9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BDF083-D63E-449B-9203-192A92C93DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9C51CC67-8ED6-481A-B1AD-6CAF7BE4B44F}"/>
   </bookViews>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DC017F-DC40-41C0-B986-73D613657A6A}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3732,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA82C2-2A57-492D-A368-F17412CC6402}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -7080,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87DC1AB-092B-4100-AC09-E6C52604F402}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10421,5 +10421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>